--- a/metrics.xlsx
+++ b/metrics.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acsjunior/Documents/Projects/ml-algorithm-selection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0ECE33-48A4-B34A-BA5D-2B4DC1637F66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9489F5-5727-1649-9197-88494B03508D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{44B8F0C1-345B-F14D-B3B4-302C6967474E}"/>
   </bookViews>
   <sheets>
-    <sheet name="metrics" sheetId="3" r:id="rId1"/>
+    <sheet name="metrics" sheetId="5" r:id="rId1"/>
+    <sheet name="legenda" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">metrics!$A$1:$Y$12</definedName>
-    <definedName name="metrics" localSheetId="0">metrics!$A$1:$Y$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">metrics!$A$1:$O$11</definedName>
+    <definedName name="metrics_1" localSheetId="0">metrics!$A$1:$O$11</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,9 +31,10 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{03BA2CB4-ED04-3A48-9054-6F900F8DC369}" name="metrics" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/acsjunior/Documents/Projects/ml-algorithm-selection/metrics.csv" comma="1">
-      <textFields count="25">
+  <connection id="1" xr16:uid="{4DC18C14-2944-E247-8699-A060E5FE2AC1}" name="metrics1" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/acsjunior/Documents/Projects/ml-algorithm-selection/metrics.csv" tab="0" comma="1">
+      <textFields count="26">
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>F1</t>
   </si>
@@ -109,21 +111,6 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>AccuracyLower</t>
-  </si>
-  <si>
-    <t>AccuracyUpper</t>
-  </si>
-  <si>
-    <t>AccuracyNull</t>
-  </si>
-  <si>
-    <t>AccuracyPValue</t>
-  </si>
-  <si>
-    <t>McnemarPValue</t>
-  </si>
-  <si>
     <t>Sensitivity</t>
   </si>
   <si>
@@ -136,33 +123,12 @@
     <t>Neg Pred Value</t>
   </si>
   <si>
-    <t>Precision</t>
-  </si>
-  <si>
-    <t>Recall</t>
-  </si>
-  <si>
-    <t>Prevalence</t>
-  </si>
-  <si>
-    <t>Detection Rate</t>
-  </si>
-  <si>
-    <t>Detection Prevalence</t>
-  </si>
-  <si>
-    <t>Balanced Accuracy</t>
-  </si>
-  <si>
     <t>Algorithm</t>
   </si>
   <si>
     <t>Logistic Regression</t>
   </si>
   <si>
-    <t>AdaBoost.M1</t>
-  </si>
-  <si>
     <t>QDA</t>
   </si>
   <si>
@@ -173,6 +139,99 @@
   </si>
   <si>
     <t>Gradient Boosting</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>Sensibilidade</t>
+  </si>
+  <si>
+    <t>Especificidade</t>
+  </si>
+  <si>
+    <t>Valor preditivo positivo</t>
+  </si>
+  <si>
+    <t>Probabilidade de uma observação positiva ser classificada como positiva pelo modelo</t>
+  </si>
+  <si>
+    <t>Probabilidade de uma observação negativa ser classificada como negativa pelo modelo</t>
+  </si>
+  <si>
+    <t>Probabilidade de uma observação classificada pelo modelo como positiva, ser realmente positiva</t>
+  </si>
+  <si>
+    <t>Valor preditivo negativo</t>
+  </si>
+  <si>
+    <t>Probabilidade de uma observação classificada pelo modelo como negativa, ser realmente negativa</t>
+  </si>
+  <si>
+    <t>Pos Pred Value / Precision</t>
+  </si>
+  <si>
+    <t>Sensitivity / Recall</t>
+  </si>
+  <si>
+    <t>Resumo de Precision e Recall em uma única métrica</t>
+  </si>
+  <si>
+    <t>Coeficiente de concordância entre os dados classificados e observados</t>
+  </si>
+  <si>
+    <t>Acurácia</t>
+  </si>
+  <si>
+    <t>Taxa de acerto geral do modelo</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Tempo médio</t>
+  </si>
+  <si>
+    <t>Tempo médio de execução do modelo (sem segundos)</t>
+  </si>
+  <si>
+    <t>Observação</t>
+  </si>
+  <si>
+    <t>número de execuções</t>
+  </si>
+  <si>
+    <t>Verdadeiro negativo</t>
+  </si>
+  <si>
+    <t>Verdadeiro positivo</t>
+  </si>
+  <si>
+    <t>Falso negativo</t>
+  </si>
+  <si>
+    <t>Falso positivo</t>
+  </si>
+  <si>
+    <t>Número de classificações negativas realizadas corretamente pelo modelo</t>
+  </si>
+  <si>
+    <t>Número de classificações postiivas realizadas corretamente pelo modelo</t>
+  </si>
+  <si>
+    <t>Número de classificações negativas realizadas incorretamente pelo modelo</t>
+  </si>
+  <si>
+    <t>Número de classificações positivas realizadas incorretamente pelo modelo</t>
+  </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t>Área sobre a curva ROC. Mede o poder de distinção do modelo entre as classes positivas e negativas</t>
   </si>
 </sst>
 </file>
@@ -218,8 +277,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -238,7 +297,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="metrics" connectionId="1" xr16:uid="{C8546B4B-0B84-CA42-A049-98B0C531479F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="metrics_1" connectionId="1" xr16:uid="{B0ED81C9-0AD2-BE40-9076-D31F85AF7180}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -537,11 +596,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B37A34E-2CA9-0F41-B1E3-0684816F83FD}">
-  <dimension ref="A1:Y12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771EFC24-18EE-EC46-A5BE-44BF55BEE1B0}">
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -549,103 +608,64 @@
     <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>19</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>30</v>
       </c>
       <c r="B2">
         <v>4498</v>
@@ -663,143 +683,83 @@
         <v>10</v>
       </c>
       <c r="G2">
+        <v>0.80907024659468696</v>
+      </c>
+      <c r="H2">
         <v>0.125700000000143</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.80684574611445503</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.61472964273105501</v>
       </c>
-      <c r="J2">
-        <v>0.79938716585693503</v>
-      </c>
       <c r="K2">
-        <v>0.81414348092377697</v>
+        <v>0.85082558360220195</v>
       </c>
       <c r="L2">
-        <v>0.52663731919863399</v>
+        <v>0.76731490958717197</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>1.50945794272056E-35</v>
+        <v>0.76671797502993</v>
+      </c>
+      <c r="N2">
+        <v>0.85124905374716098</v>
       </c>
       <c r="O2">
-        <v>0.85082558360220195</v>
-      </c>
-      <c r="P2">
-        <v>0.76731490958717197</v>
-      </c>
-      <c r="Q2">
-        <v>0.76671797502993</v>
-      </c>
-      <c r="R2">
-        <v>0.85124905374716098</v>
-      </c>
-      <c r="S2">
-        <v>0.76671797502993</v>
-      </c>
-      <c r="T2">
-        <v>0.85082558360220195</v>
-      </c>
-      <c r="U2">
         <v>0.80658510255487603</v>
       </c>
-      <c r="V2">
-        <v>0.47336268080136601</v>
-      </c>
-      <c r="W2">
-        <v>0.40274907914832397</v>
-      </c>
-      <c r="X2">
-        <v>0.52528973138082802</v>
-      </c>
-      <c r="Y2">
-        <v>0.80907024659468696</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4839</v>
+        <v>4840</v>
       </c>
       <c r="C3">
-        <v>5116</v>
+        <v>5115</v>
       </c>
       <c r="D3">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E3">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F3">
         <v>10</v>
       </c>
       <c r="G3">
+        <v>0.89821460751067195</v>
+      </c>
+      <c r="H3">
         <v>19.298299999999799</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.89434911508399995</v>
       </c>
-      <c r="I3">
-        <v>0.78985188329634004</v>
-      </c>
       <c r="J3">
-        <v>0.88849022805467504</v>
+        <v>0.78984788198395595</v>
       </c>
       <c r="K3">
-        <v>0.90000081821437905</v>
+        <v>0.97077244258872697</v>
       </c>
       <c r="L3">
-        <v>0.52663731919863399</v>
+        <v>0.82565677243261704</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1.1421308563761099E-141</v>
+        <v>0.83346912172070997</v>
+      </c>
+      <c r="N3">
+        <v>0.96916299559471397</v>
       </c>
       <c r="O3">
-        <v>0.97096223192256603</v>
-      </c>
-      <c r="P3">
-        <v>0.82548618219037895</v>
-      </c>
-      <c r="Q3">
-        <v>0.83336048216321901</v>
-      </c>
-      <c r="R3">
-        <v>0.96935096153846101</v>
-      </c>
-      <c r="S3">
-        <v>0.83336048216321901</v>
-      </c>
-      <c r="T3">
-        <v>0.97096223192256603</v>
-      </c>
-      <c r="U3">
-        <v>0.89691444600280501</v>
-      </c>
-      <c r="V3">
-        <v>0.47336268080136601</v>
-      </c>
-      <c r="W3">
-        <v>0.45961728505974297</v>
-      </c>
-      <c r="X3">
-        <v>0.55152277423412099</v>
-      </c>
-      <c r="Y3">
-        <v>0.89822420705647199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0.89689637033140401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>4781</v>
@@ -817,64 +777,34 @@
         <v>10</v>
       </c>
       <c r="G4">
+        <v>0.83615050054589501</v>
+      </c>
+      <c r="H4">
         <v>1.9085999999999299</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.83505525110053003</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.67020363104444802</v>
       </c>
-      <c r="J4">
-        <v>0.82802832358809098</v>
-      </c>
       <c r="K4">
-        <v>0.84190645645411</v>
+        <v>0.85670905295122401</v>
       </c>
       <c r="L4">
-        <v>0.52663731919863399</v>
+        <v>0.81559194814056601</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>3.3287076704968999E-14</v>
+        <v>0.80679177837354799</v>
+      </c>
+      <c r="N4">
+        <v>0.86361994219653204</v>
       </c>
       <c r="O4">
-        <v>0.85670905295122401</v>
-      </c>
-      <c r="P4">
-        <v>0.81559194814056601</v>
-      </c>
-      <c r="Q4">
-        <v>0.80679177837354799</v>
-      </c>
-      <c r="R4">
-        <v>0.86361994219653204</v>
-      </c>
-      <c r="S4">
-        <v>0.80679177837354799</v>
-      </c>
-      <c r="T4">
-        <v>0.85670905295122401</v>
-      </c>
-      <c r="U4">
         <v>0.83100147275405001</v>
       </c>
-      <c r="V4">
-        <v>0.47336268080136601</v>
-      </c>
-      <c r="W4">
-        <v>0.40553409397179102</v>
-      </c>
-      <c r="X4">
-        <v>0.50265025604168501</v>
-      </c>
-      <c r="Y4">
-        <v>0.83615050054589501</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -894,66 +824,36 @@
         <v>10</v>
       </c>
       <c r="G5">
+        <v>0.84430074156410395</v>
+      </c>
+      <c r="H5">
         <v>25.413099999999901</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.842871260443806</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.68602653575637995</v>
       </c>
-      <c r="J5">
-        <v>0.83597614666904496</v>
-      </c>
       <c r="K5">
-        <v>0.84958652258916501</v>
+        <v>0.87113304232302102</v>
       </c>
       <c r="L5">
-        <v>0.52663731919863399</v>
+        <v>0.81746844080518599</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1.10515765217942E-20</v>
+        <v>0.81095406360424005</v>
+      </c>
+      <c r="N5">
+        <v>0.87589106196307798</v>
       </c>
       <c r="O5">
-        <v>0.87113304232302102</v>
-      </c>
-      <c r="P5">
-        <v>0.81746844080518599</v>
-      </c>
-      <c r="Q5">
-        <v>0.81095406360424005</v>
-      </c>
-      <c r="R5">
-        <v>0.87589106196307798</v>
-      </c>
-      <c r="S5">
-        <v>0.81095406360424005</v>
-      </c>
-      <c r="T5">
-        <v>0.87113304232302102</v>
-      </c>
-      <c r="U5">
         <v>0.83996706011528999</v>
       </c>
-      <c r="V5">
-        <v>0.47336268080136601</v>
-      </c>
-      <c r="W5">
-        <v>0.41236187224867499</v>
-      </c>
-      <c r="X5">
-        <v>0.50848980325217896</v>
-      </c>
-      <c r="Y5">
-        <v>0.84430074156410395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>4698</v>
@@ -971,64 +871,34 @@
         <v>10</v>
       </c>
       <c r="G6">
+        <v>0.82916590015993197</v>
+      </c>
+      <c r="H6">
         <v>4.1411000000000104</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.82768843769652301</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.65575088694392003</v>
       </c>
-      <c r="J6">
-        <v>0.82054235760996996</v>
-      </c>
       <c r="K6">
-        <v>0.83466268445432601</v>
+        <v>0.85689884228506397</v>
       </c>
       <c r="L6">
-        <v>0.52663731919863399</v>
+        <v>0.80143295803479997</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>9.7275267302143105E-21</v>
+        <v>0.79503433703116699</v>
+      </c>
+      <c r="N6">
+        <v>0.86170212765957499</v>
       </c>
       <c r="O6">
-        <v>0.85689884228506397</v>
-      </c>
-      <c r="P6">
-        <v>0.80143295803479997</v>
-      </c>
-      <c r="Q6">
-        <v>0.79503433703116699</v>
-      </c>
-      <c r="R6">
-        <v>0.86170212765957499</v>
-      </c>
-      <c r="S6">
-        <v>0.79503433703116699</v>
-      </c>
-      <c r="T6">
-        <v>0.85689884228506397</v>
-      </c>
-      <c r="U6">
         <v>0.82480818414322299</v>
       </c>
-      <c r="V6">
-        <v>0.47336268080136601</v>
-      </c>
-      <c r="W6">
-        <v>0.40562393315964401</v>
-      </c>
-      <c r="X6">
-        <v>0.51019674782140001</v>
-      </c>
-      <c r="Y6">
-        <v>0.82916590015993197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1048,64 +918,34 @@
         <v>10</v>
       </c>
       <c r="G7">
+        <v>0.79960878532301005</v>
+      </c>
+      <c r="H7">
         <v>0.315300000000025</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.79714311382625103</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.59559272658324902</v>
       </c>
-      <c r="J7">
-        <v>0.78955050915754199</v>
-      </c>
       <c r="K7">
-        <v>0.804579981879745</v>
+        <v>0.84589106092237598</v>
       </c>
       <c r="L7">
-        <v>0.52663731919863399</v>
+        <v>0.75332650972364401</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1.74398616429841E-40</v>
+        <v>0.755039810265966</v>
+      </c>
+      <c r="N7">
+        <v>0.84468247895944903</v>
       </c>
       <c r="O7">
-        <v>0.84589106092237598</v>
-      </c>
-      <c r="P7">
-        <v>0.75332650972364401</v>
-      </c>
-      <c r="Q7">
-        <v>0.755039810265966</v>
-      </c>
-      <c r="R7">
-        <v>0.84468247895944903</v>
-      </c>
-      <c r="S7">
-        <v>0.755039810265966</v>
-      </c>
-      <c r="T7">
-        <v>0.84589106092237598</v>
-      </c>
-      <c r="U7">
         <v>0.79788757608306504</v>
       </c>
-      <c r="V7">
-        <v>0.47336268080136601</v>
-      </c>
-      <c r="W7">
-        <v>0.40041326026412699</v>
-      </c>
-      <c r="X7">
-        <v>0.53032072590063795</v>
-      </c>
-      <c r="Y7">
-        <v>0.79960878532301005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1125,64 +965,34 @@
         <v>10</v>
       </c>
       <c r="G8">
+        <v>0.83837226928535802</v>
+      </c>
+      <c r="H8">
         <v>0.35330000000012701</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.83784026592399596</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.67540244233814395</v>
       </c>
-      <c r="J8">
-        <v>0.83085965353372804</v>
-      </c>
       <c r="K8">
-        <v>0.84464368517164101</v>
+        <v>0.84835832226228902</v>
       </c>
       <c r="L8">
-        <v>0.52663731919863399</v>
+        <v>0.82838621630842701</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>1.2425009912385999E-6</v>
+        <v>0.81628926223520804</v>
+      </c>
+      <c r="N8">
+        <v>0.85870910698496905</v>
       </c>
       <c r="O8">
-        <v>0.84835832226228902</v>
-      </c>
-      <c r="P8">
-        <v>0.82838621630842701</v>
-      </c>
-      <c r="Q8">
-        <v>0.81628926223520804</v>
-      </c>
-      <c r="R8">
-        <v>0.85870910698496905</v>
-      </c>
-      <c r="S8">
-        <v>0.81628926223520804</v>
-      </c>
-      <c r="T8">
-        <v>0.84835832226228902</v>
-      </c>
-      <c r="U8">
         <v>0.832014890646813</v>
       </c>
-      <c r="V8">
-        <v>0.47336268080136601</v>
-      </c>
-      <c r="W8">
-        <v>0.40158116970622598</v>
-      </c>
-      <c r="X8">
-        <v>0.49195939268708999</v>
-      </c>
-      <c r="Y8">
-        <v>0.83837226928535802</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1202,66 +1012,36 @@
         <v>10</v>
       </c>
       <c r="G9">
+        <v>0.826462260122243</v>
+      </c>
+      <c r="H9">
         <v>7.0248999999999802</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.82427454855808102</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.64943333183696295</v>
       </c>
-      <c r="J9">
-        <v>0.8170748520951</v>
-      </c>
       <c r="K9">
-        <v>0.83130421283924605</v>
+        <v>0.86752704498007205</v>
       </c>
       <c r="L9">
-        <v>0.52663731919863399</v>
+        <v>0.78539747526441495</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>1.27983375241798E-36</v>
+        <v>0.78418253559787299</v>
+      </c>
+      <c r="N9">
+        <v>0.86835156544700098</v>
       </c>
       <c r="O9">
-        <v>0.86752704498007205</v>
-      </c>
-      <c r="P9">
-        <v>0.78539747526441495</v>
-      </c>
-      <c r="Q9">
-        <v>0.78418253559787299</v>
-      </c>
-      <c r="R9">
-        <v>0.86835156544700098</v>
-      </c>
-      <c r="S9">
-        <v>0.78418253559787299</v>
-      </c>
-      <c r="T9">
-        <v>0.86752704498007205</v>
-      </c>
-      <c r="U9">
         <v>0.82375202739232301</v>
       </c>
-      <c r="V9">
-        <v>0.47336268080136601</v>
-      </c>
-      <c r="W9">
-        <v>0.410654927679454</v>
-      </c>
-      <c r="X9">
-        <v>0.52367262599946096</v>
-      </c>
-      <c r="Y9">
-        <v>0.826462260122244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>5049</v>
@@ -1279,219 +1059,264 @@
         <v>10</v>
       </c>
       <c r="G10">
+        <v>0.85881980367196697</v>
+      </c>
+      <c r="H10">
         <v>6.6299000000000898</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.85895247506962502</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.71725402982097597</v>
       </c>
-      <c r="J10">
-        <v>0.85234750105433998</v>
-      </c>
       <c r="K10">
-        <v>0.86536908774905397</v>
+        <v>0.856329474283545</v>
       </c>
       <c r="L10">
-        <v>0.52663731919863399</v>
+        <v>0.86131013306038895</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.84732394366197195</v>
       </c>
       <c r="N10">
-        <v>0.165114275586489</v>
+        <v>0.86961763692731697</v>
       </c>
       <c r="O10">
-        <v>0.856329474283545</v>
-      </c>
-      <c r="P10">
-        <v>0.86131013306038895</v>
-      </c>
-      <c r="Q10">
-        <v>0.84732394366197195</v>
-      </c>
-      <c r="R10">
-        <v>0.86961763692731697</v>
-      </c>
-      <c r="S10">
-        <v>0.84732394366197195</v>
-      </c>
-      <c r="T10">
-        <v>0.856329474283545</v>
-      </c>
-      <c r="U10">
         <v>0.85180290730602204</v>
       </c>
-      <c r="V10">
-        <v>0.47336268080136601</v>
-      </c>
-      <c r="W10">
-        <v>0.40535441559608298</v>
-      </c>
-      <c r="X10">
-        <v>0.47839367532117499</v>
-      </c>
-      <c r="Y10">
-        <v>0.85881980367196697</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>4781</v>
+        <v>3785</v>
       </c>
       <c r="C11">
-        <v>4467</v>
+        <v>4777</v>
       </c>
       <c r="D11">
-        <v>802</v>
+        <v>492</v>
       </c>
       <c r="E11">
-        <v>1081</v>
+        <v>2077</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
       <c r="G11">
-        <v>338.95339999999999</v>
+        <v>0.77615385731118602</v>
       </c>
       <c r="H11">
-        <v>0.83083280927140402</v>
+        <v>0.118000000000029</v>
       </c>
       <c r="I11">
-        <v>0.66160893287567801</v>
+        <v>0.769203126403737</v>
       </c>
       <c r="J11">
-        <v>0.82373700071075595</v>
+        <v>0.54403014360778601</v>
       </c>
       <c r="K11">
-        <v>0.83775512500687999</v>
+        <v>0.90662364775099602</v>
       </c>
       <c r="L11">
-        <v>0.52663731919863399</v>
+        <v>0.64568406687137503</v>
       </c>
       <c r="M11">
+        <v>0.696965275751386</v>
+      </c>
+      <c r="N11">
+        <v>0.88496609773205503</v>
+      </c>
+      <c r="O11">
+        <v>0.788088756908356</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:O11" xr:uid="{2830B1AF-057A-534A-BAC3-6077FFB7CC4F}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120B655F-172C-6643-8F0E-B1A5EA653320}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N11" s="1">
-        <v>1.48915311875877E-10</v>
-      </c>
-      <c r="O11">
-        <v>0.84778895426076994</v>
-      </c>
-      <c r="P11">
-        <v>0.81559194814056601</v>
-      </c>
-      <c r="Q11">
-        <v>0.80515501081470797</v>
-      </c>
-      <c r="R11">
-        <v>0.85634963281389898</v>
-      </c>
-      <c r="S11">
-        <v>0.80515501081470797</v>
-      </c>
-      <c r="T11">
-        <v>0.84778895426076994</v>
-      </c>
-      <c r="U11">
-        <v>0.82592215956365</v>
-      </c>
-      <c r="V11">
-        <v>0.47336268080136601</v>
-      </c>
-      <c r="W11">
-        <v>0.40131165214266501</v>
-      </c>
-      <c r="X11">
-        <v>0.49842781421255899</v>
-      </c>
-      <c r="Y11">
-        <v>0.83169045120066798</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12">
-        <v>3785</v>
-      </c>
-      <c r="C12">
-        <v>4777</v>
-      </c>
-      <c r="D12">
-        <v>492</v>
-      </c>
-      <c r="E12">
-        <v>2077</v>
-      </c>
-      <c r="F12">
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G12">
-        <v>0.118000000000029</v>
-      </c>
-      <c r="H12">
-        <v>0.769203126403737</v>
-      </c>
-      <c r="I12">
-        <v>0.54403014360778601</v>
-      </c>
-      <c r="J12">
-        <v>0.76126098102036699</v>
-      </c>
-      <c r="K12">
-        <v>0.77700422949431103</v>
-      </c>
-      <c r="L12">
-        <v>0.52663731919863399</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
-        <v>2.1193747369570402E-214</v>
-      </c>
-      <c r="O12">
-        <v>0.90662364775099602</v>
-      </c>
-      <c r="P12">
-        <v>0.64568406687137503</v>
-      </c>
-      <c r="Q12">
-        <v>0.696965275751386</v>
-      </c>
-      <c r="R12">
-        <v>0.88496609773205503</v>
-      </c>
-      <c r="S12">
-        <v>0.696965275751386</v>
-      </c>
-      <c r="T12">
-        <v>0.90662364775099602</v>
-      </c>
-      <c r="U12">
-        <v>0.788088756908356</v>
-      </c>
-      <c r="V12">
-        <v>0.47336268080136601</v>
-      </c>
-      <c r="W12">
-        <v>0.42916180037732499</v>
-      </c>
-      <c r="X12">
-        <v>0.61575779354954596</v>
-      </c>
-      <c r="Y12">
-        <v>0.77615385731118602</v>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y12" xr:uid="{26785F8C-88A5-4545-89B2-E12E299D8BC2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>